--- a/Graph.xlsx
+++ b/Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\DataStructuresPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD2AD3F-AE9C-44D8-AD28-48EBDF24599F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF2C7E6-674D-4306-994E-CBAE224B4638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{5AF8C7A7-99D1-493C-8125-0B391859DC84}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Mumbai</t>
   </si>
@@ -93,15 +93,6 @@
 </t>
   </si>
   <si>
-    <t>path=['paris', 'new york']
-paths=[]  # pre Toronto
-case: parisnewyork-&gt;toronto
-path=['paris','new york']
-paths=[]  # post Toronto
-3. 
-paths=[['paris','new york','yumthang']]</t>
-  </si>
-  <si>
     <t xml:space="preserve">path=['paris']
 paths=[]
 2. 
@@ -125,6 +116,54 @@
 path=['paris','new york','yumthang']
 newPaths=[['paris','new york','yumthang']]
 </t>
+  </si>
+  <si>
+    <t>First Traversal</t>
+  </si>
+  <si>
+    <t>Paris-&gt;Dubai-&gt;NewYork-&gt;Toronto</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Second Traversal</t>
+  </si>
+  <si>
+    <t>Paris-&gt;Dubai-&gt;NewYork-&gt;Yumthang</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Third Traversal</t>
+  </si>
+  <si>
+    <t>Paris-&gt;Dubai-&gt;Yumthang</t>
+  </si>
+  <si>
+    <t>Fourth Traversal</t>
+  </si>
+  <si>
+    <t>Paris-&gt;NewYork-&gt;Toronto</t>
+  </si>
+  <si>
+    <t>Fifth Traversal</t>
+  </si>
+  <si>
+    <t>Paris-&gt;NewYork-&gt;Yumthang</t>
+  </si>
+  <si>
+    <t>path=['paris', 'new york']
+paths=[]  # pre Toronto
+case: paris-&gt;newyork-&gt;toronto
+path=['paris','new york']
+paths=[]  # post Toronto
+3. 
+paths=[['paris','new york','yumthang']]</t>
   </si>
 </sst>
 </file>
@@ -155,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,11 +202,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -175,6 +229,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,17 +544,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F137B337-2D89-4A08-862B-8D7F0C9B95A5}">
-  <dimension ref="A2:K15"/>
+  <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G11" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="33.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.81640625" customWidth="1"/>
-    <col min="6" max="6" width="42.7265625" customWidth="1"/>
+    <col min="6" max="6" width="55.26953125" customWidth="1"/>
     <col min="8" max="8" width="42.90625" customWidth="1"/>
     <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.54296875" customWidth="1"/>
@@ -525,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -539,13 +595,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="203" x14ac:dyDescent="0.35">
@@ -575,6 +631,7 @@
       <c r="G13" t="s">
         <v>3</v>
       </c>
+      <c r="H13" s="1"/>
       <c r="J13" t="s">
         <v>6</v>
       </c>
@@ -590,7 +647,65 @@
         <v>5</v>
       </c>
       <c r="K15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
